--- a/biology/Botanique/Stellaire_graminée/Stellaire_graminée.xlsx
+++ b/biology/Botanique/Stellaire_graminée/Stellaire_graminée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Stellaire_gramin%C3%A9e</t>
+          <t>Stellaire_graminée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stellaria graminea
 La Stellaire graminée ou Stellaire à feuilles de graminée (Stellaria graminea) est une plante herbacée de la famille des Caryophyllacées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Stellaire_gramin%C3%A9e</t>
+          <t>Stellaire_graminée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Appareil végétatif
-C'est une plante moyenne à feuilles opposées, effilées.  La tige grêle et cylindrique est d'abord étalée (la multiplication végétative se réalisant au niveau des nœuds qui s'enracinent) puis dressée. Si on pince la tige et qu'on tire, on découvre, comme chez la Stellaire intermédiaire, un axe très élastique à l'intérieur. 
-Appareil reproducteur
-Couleur dominante des fleurs : blanc
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante moyenne à feuilles opposées, effilées.  La tige grêle et cylindrique est d'abord étalée (la multiplication végétative se réalisant au niveau des nœuds qui s'enracinent) puis dressée. Si on pince la tige et qu'on tire, on découvre, comme chez la Stellaire intermédiaire, un axe très élastique à l'intérieur. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Stellaire_graminée</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Stellaire_gramin%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Couleur dominante des fleurs : blanc
 Corolle : pétales échancrés jusqu'au point d'insertion
 Période de floraison : juillet-août
 Inflorescence : cyme bipare
@@ -530,31 +582,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Stellaire_gramin%C3%A9e</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Stellaire_graminée</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Stellaire_gramin%C3%A9e</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Habitat type : prairies médioeuropéennes, mésohydriques
 Aire de répartition : eurasiatique
